--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -1,52 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{009581A5-3E46-49F0-A0D1-CE5767E2535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D68E699D-582F-48F7-BB13-321F09DC3C8E}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -379,13 +419,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F00F33-50ED-410B-835E-298D6C543618}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2025-07-23 09:01:35</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>add-user</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>firstteam</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Vignesh2122</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-07-23 09:33:16</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>add-user</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>firstteam</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Vignesh2122</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>push</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -1,52 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{009581A5-3E46-49F0-A0D1-CE5767E2535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D68E699D-582F-48F7-BB13-321F09DC3C8E}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -379,13 +419,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F00F33-50ED-410B-835E-298D6C543618}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2025-07-23 11:39:30</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>add-user</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>firstteam</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>GokulJ17</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -1,92 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3069E685-E2B7-464A-B375-131EAAE3410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D68E699D-582F-48F7-BB13-321F09DC3C8E}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Date &amp; Time</t>
-  </si>
-  <si>
-    <t>Actions to perform</t>
-  </si>
-  <si>
-    <t>GitHub Organization</t>
-  </si>
-  <si>
-    <t>Team Name</t>
-  </si>
-  <si>
-    <t>Repository Name</t>
-  </si>
-  <si>
-    <t>GitHub User Name</t>
-  </si>
-  <si>
-    <t>Permission Level</t>
-  </si>
-  <si>
-    <t>New Repo Name (If created new)</t>
-  </si>
-  <si>
-    <t>Public / Private Repo</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,22 +54,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,58 +428,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F00F33-50ED-410B-835E-298D6C543618}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" customWidth="1"/>
+    <col width="16.21875" customWidth="1" min="1" max="1"/>
+    <col width="24.33203125" customWidth="1" min="2" max="2"/>
+    <col width="32.33203125" customWidth="1" min="3" max="3"/>
+    <col width="16.44140625" customWidth="1" min="4" max="4"/>
+    <col width="17.6640625" customWidth="1" min="5" max="5"/>
+    <col width="16.88671875" customWidth="1" min="6" max="6"/>
+    <col width="15.77734375" customWidth="1" min="7" max="7"/>
+    <col width="30.6640625" customWidth="1" min="8" max="8"/>
+    <col width="21.109375" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date &amp; Time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Actions to perform</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>GitHub Organization</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Team Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Repository Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GitHub User Name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Permission Level</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>New Repo Name (If created new)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Public / Private Repo</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-07-23 12:19:26</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>add-user</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>firstteam</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Vignesh2122</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -1,107 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDA7078-6D95-4745-B6B7-9C801E4B7FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D68E699D-582F-48F7-BB13-321F09DC3C8E}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Date &amp; Time</t>
-  </si>
-  <si>
-    <t>Actions to perform</t>
-  </si>
-  <si>
-    <t>GitHub Organization</t>
-  </si>
-  <si>
-    <t>Team Name</t>
-  </si>
-  <si>
-    <t>GitHub User Name</t>
-  </si>
-  <si>
-    <t>Permission Level</t>
-  </si>
-  <si>
-    <t>New Repo Name (If created new)</t>
-  </si>
-  <si>
-    <t>Private Repo (True / False)</t>
-  </si>
-  <si>
-    <t>Repository Name (if applicable)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF1F2328"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF1F2328"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,24 +69,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -437,58 +445,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F00F33-50ED-410B-835E-298D6C543618}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col width="16.21875" customWidth="1" min="1" max="1"/>
+    <col width="24.33203125" customWidth="1" min="2" max="2"/>
+    <col width="32.33203125" customWidth="1" min="3" max="3"/>
+    <col width="16.44140625" customWidth="1" min="4" max="4"/>
+    <col width="35.109375" customWidth="1" min="5" max="5"/>
+    <col width="20.21875" customWidth="1" min="6" max="6"/>
+    <col width="21.6640625" customWidth="1" min="7" max="7"/>
+    <col width="36" customWidth="1" min="8" max="8"/>
+    <col width="26.33203125" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1"/>
+    <row r="1" ht="15.6" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Date &amp; Time</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Actions to perform</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>GitHub Organization</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Team Name</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Repository Name (if applicable)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>GitHub User Name</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Permission Level</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>New Repo Name (If created new)</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Private Repo (True / False)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-07-23 12:36:38</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>add-user</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>firstteam</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>task-repo</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Vignesh2122</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -559,6 +559,38 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-23 12:38:40</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>delete-team</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>firstteam</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>task-repo</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -591,6 +591,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-23 12:42:42</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>create-team</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>newteam</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -618,6 +618,38 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-23 12:45:03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>create-repo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>newteam</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nextrepo</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -650,6 +650,48 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-23 12:50:50</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>create-team</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>secondteam</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>demo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vignesh2122</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -692,6 +692,38 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-23 12:54:16</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>delete-team</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>secondteam</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>demo</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -724,6 +724,48 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-23 13:17:17</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>add-user</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>newteam</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>demo</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>GokulJ17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -766,6 +766,43 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-24 05:26:59</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>delete-team</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>newteam</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>demo</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>GokulJ17</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -803,6 +803,48 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-08-01 06:26:44</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>create-team</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>firstteam</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>demo</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vignesh2122</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -845,6 +845,33 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-08-03 06:42:05</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>delete-team</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>firstteam</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -872,6 +872,33 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-08-05 12:19:32</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>create-repo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>deerepo</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -899,6 +899,38 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-08-06 01:22:53</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>remove-repo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Devops</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>deerepo</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -931,6 +931,33 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-08-06 05:06:29</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>create-repo</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>desk</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -958,6 +958,33 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-08-17 16:16:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>create-team</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>devteam</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -985,6 +985,38 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-08-17 16:20:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>remove-repo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Devops</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>deerepo</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1017,6 +1017,38 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-08-20 07:56:50</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>create-team</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>newteam</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>demo</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1049,6 +1049,38 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-08-20 07:58:27</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>delete-team</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>newteam</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>demo</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/logs/github_admin_log.xlsx
+++ b/logs/github_admin_log.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1081,6 +1081,38 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-09-03 06:54:24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>create-team</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>new-organization97</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>newtestteam</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>demo</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
